--- a/Team-Data/2011-12/4-5-2011-12.xlsx
+++ b/Team-Data/2011-12/4-5-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.556</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
@@ -878,25 +945,25 @@
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
         <v>23.5</v>
@@ -908,37 +975,37 @@
         <v>7.3</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -959,13 +1026,13 @@
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -983,13 +1050,13 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1141,13 +1208,13 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1174,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
         <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.768</v>
+        <v>0.764</v>
       </c>
       <c r="H5" t="n">
         <v>48.1</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
         <v>82.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1242,46 +1309,46 @@
         <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.725</v>
+        <v>0.722</v>
       </c>
       <c r="R5" t="n">
         <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T5" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U5" t="n">
         <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
         <v>17.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AB5" t="n">
         <v>96.8</v>
@@ -1290,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,13 +1372,13 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
@@ -1517,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1529,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1693,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1705,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>9</v>
@@ -1905,13 +1972,13 @@
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,28 +2025,28 @@
         <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
         <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P9" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.753</v>
+        <v>0.758</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
@@ -1991,37 +2058,37 @@
         <v>40</v>
       </c>
       <c r="U9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,16 +2097,16 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK9" t="n">
         <v>25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2051,13 +2118,13 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2084,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2221,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2260,13 +2327,13 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2433,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
         <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2695,10 +2762,10 @@
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>16.1</v>
@@ -2719,13 +2786,13 @@
         <v>41.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2734,7 +2801,7 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.4</v>
@@ -2743,13 +2810,13 @@
         <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2782,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,25 +2858,25 @@
         <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3155,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3179,7 +3246,7 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>2</v>
@@ -3331,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3540,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -3674,13 +3741,13 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3874,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
@@ -3901,13 +3968,13 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA19" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4059,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,28 +4212,28 @@
         <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M21" t="n">
         <v>22.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
       <c r="O21" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P21" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R21" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S21" t="n">
         <v>30.8</v>
@@ -4178,43 +4245,43 @@
         <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB21" t="n">
         <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4226,13 +4293,13 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
@@ -4265,13 +4332,13 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB21" t="n">
         <v>13</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.582</v>
+        <v>0.593</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,10 +4573,10 @@
         <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4521,10 +4588,10 @@
         <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P23" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.648</v>
@@ -4533,13 +4600,13 @@
         <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.4</v>
@@ -4548,37 +4615,37 @@
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.1</v>
       </c>
-      <c r="Y23" t="n">
-        <v>4</v>
-      </c>
       <c r="Z23" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -4763,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4772,7 +4839,7 @@
         <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4814,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
@@ -4969,7 +5036,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J27" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.432</v>
@@ -5243,16 +5310,16 @@
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.748</v>
@@ -5261,7 +5328,7 @@
         <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
         <v>43.5</v>
@@ -5276,7 +5343,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5285,28 +5352,28 @@
         <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC27" t="n">
         <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5327,7 +5394,7 @@
         <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5348,13 +5415,13 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5530,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5706,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
@@ -5721,7 +5788,7 @@
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5861,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,25 +6029,25 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N31" t="n">
         <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.725</v>
@@ -5989,7 +6056,7 @@
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
         <v>41.4</v>
@@ -6004,25 +6071,25 @@
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
         <v>93.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,16 +6101,16 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,22 +6122,22 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6085,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2011-12</t>
+          <t>2012-04-05</t>
         </is>
       </c>
     </row>
